--- a/Настройки.xlsx
+++ b/Настройки.xlsx
@@ -209,6 +209,9 @@
     <x:t>Наполение документа элементами</x:t>
   </x:si>
   <x:si>
+    <x:t>&lt;=</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ручная валидация элементов</x:t>
   </x:si>
   <x:si>
@@ -219,9 +222,6 @@
   </x:si>
   <x:si>
     <x:t>Загрузка групп и элементов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;=</x:t>
   </x:si>
   <x:si>
     <x:t>Актуализация свойств</x:t>
@@ -571,13 +571,13 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -610,9 +610,6 @@
   </x:cellStyleXfs>
   <x:cellXfs count="29">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -657,6 +654,9 @@
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -968,7 +968,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="E1" s="2" t="s">
+      <x:c r="E1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
@@ -976,18 +976,18 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="13" t="s">
+      <x:c r="A2" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="13" t="s">
+      <x:c r="C2" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="12" t="s">
+      <x:c r="A3" s="11" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C3" s="12" t="s">
+      <x:c r="C3" s="11" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1009,7 +1009,7 @@
   <x:dimension ref="A1:AR21"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D13" sqref="D13"/>
+      <x:selection activeCell="E8" sqref="E8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,21 +1025,21 @@
     <x:col min="9" max="9" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="15" t="s">
+    <x:row r="1" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B1" s="15" t="s">
+      <x:c r="B1" s="14" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C1" s="16" t="s">
+      <x:c r="C1" s="15" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D1" s="4" t="s"/>
-      <x:c r="E1" s="4" t="s"/>
-      <x:c r="F1" s="4" t="s"/>
-      <x:c r="G1" s="4" t="s"/>
-      <x:c r="H1" s="4" t="s"/>
+      <x:c r="D1" s="3" t="s"/>
+      <x:c r="E1" s="3" t="s"/>
+      <x:c r="F1" s="3" t="s"/>
+      <x:c r="G1" s="3" t="s"/>
+      <x:c r="H1" s="3" t="s"/>
       <x:c r="I1" s="0" t="s"/>
       <x:c r="J1" s="0" t="s"/>
       <x:c r="K1" s="0" t="s"/>
@@ -1077,7 +1077,7 @@
       <x:c r="AQ1" s="0" t="s"/>
       <x:c r="AR1" s="0" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="26" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -1126,51 +1126,51 @@
       <x:c r="AR2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="17" t="n">
+      <x:c r="A3" s="16" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s">
+      <x:c r="B3" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C3" s="11" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="23" t="n">
+      <x:c r="A4" s="22" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s"/>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s"/>
     </x:row>
     <x:row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="23" t="n">
+      <x:c r="A5" s="22" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s"/>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s"/>
     </x:row>
     <x:row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="23" t="n">
+      <x:c r="A6" s="22" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s"/>
     </x:row>
     <x:row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="23" t="n">
+      <x:c r="A7" s="22" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
+      <x:c r="C7" s="2" t="s"/>
     </x:row>
     <x:row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <x:c r="A8" s="26" t="s">
@@ -1180,51 +1180,51 @@
       <x:c r="C8" s="26" t="s"/>
     </x:row>
     <x:row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="18" t="n">
+      <x:c r="A9" s="17" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B9" s="4" t="s">
+      <x:c r="B9" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C9" s="11" t="s">
-        <x:v>15</x:v>
+      <x:c r="C9" s="10" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="19" t="n">
+      <x:c r="A10" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C10" s="3" t="s"/>
+      <x:c r="C10" s="2" t="s"/>
     </x:row>
     <x:row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="19" t="n">
+      <x:c r="A11" s="18" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s"/>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s"/>
     </x:row>
     <x:row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="19" t="n">
+      <x:c r="A12" s="18" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s"/>
     </x:row>
     <x:row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="19" t="n">
+      <x:c r="A13" s="18" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="3" t="s"/>
+      <x:c r="C13" s="2" t="s"/>
     </x:row>
     <x:row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <x:c r="A14" s="27" t="n">
@@ -1233,7 +1233,7 @@
       <x:c r="B14" s="28" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="10" t="s"/>
+      <x:c r="C14" s="9" t="s"/>
     </x:row>
     <x:row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <x:c r="A15" s="26" t="s">
@@ -1243,49 +1243,49 @@
       <x:c r="C15" s="26" t="s"/>
     </x:row>
     <x:row r="16" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="18" t="n">
+      <x:c r="A16" s="17" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B16" s="4" t="s">
+      <x:c r="B16" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="11" t="s">
-        <x:v>15</x:v>
+      <x:c r="C16" s="10" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="19" t="n">
+      <x:c r="A17" s="18" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="3" t="s"/>
+      <x:c r="C17" s="2" t="s"/>
     </x:row>
     <x:row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="19" t="n">
+      <x:c r="A18" s="18" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C18" s="3" t="s"/>
+      <x:c r="C18" s="2" t="s"/>
     </x:row>
     <x:row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="19" t="n">
+      <x:c r="A19" s="18" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C19" s="3" t="s"/>
+      <x:c r="C19" s="2" t="s"/>
     </x:row>
     <x:row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="19" t="n">
+      <x:c r="A20" s="18" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C20" s="3" t="s"/>
+      <x:c r="C20" s="2" t="s"/>
     </x:row>
     <x:row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <x:c r="A21" s="20" t="n">
+      <x:c r="A21" s="19" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B21" s="5" t="s"/>
-      <x:c r="C21" s="10" t="s"/>
+      <x:c r="B21" s="4" t="s"/>
+      <x:c r="C21" s="9" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -1310,7 +1310,7 @@
   <x:dimension ref="A1:E9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E3" sqref="E3"/>
+      <x:selection activeCell="D4" sqref="D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,117 +1325,117 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="8" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B1" s="9" t="s">
+      <x:c r="B1" s="8" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C1" s="9" t="s">
+      <x:c r="C1" s="8" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D1" s="8" t="s">
+      <x:c r="D1" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E1" s="9" t="s">
+      <x:c r="E1" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="7" t="s">
+      <x:c r="A2" s="6" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B2" s="14" t="s">
+      <x:c r="B2" s="13" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C2" s="7" t="s">
+      <x:c r="C2" s="6" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D2" s="22" t="s">
+      <x:c r="D2" s="21" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="E2" s="7" t="s">
+      <x:c r="E2" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="7" t="s">
+      <x:c r="A3" s="6" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B3" s="7" t="s">
+      <x:c r="B3" s="6" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C3" s="7" t="s">
+      <x:c r="C3" s="6" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D3" s="7" t="s">
+      <x:c r="D3" s="6" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E3" s="7" t="s">
+      <x:c r="E3" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="7" t="s">
+      <x:c r="A4" s="6" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B4" s="7" t="s">
+      <x:c r="B4" s="6" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C4" s="7" t="s">
+      <x:c r="C4" s="6" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D4" s="21" t="s">
+      <x:c r="D4" s="20" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="E4" s="7" t="s">
+      <x:c r="E4" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="7" t="s">
+      <x:c r="A5" s="6" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B5" s="7" t="s">
+      <x:c r="B5" s="6" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C5" s="7" t="s">
+      <x:c r="C5" s="6" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="E5" s="7" t="s">
+      <x:c r="E5" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="7" t="s"/>
-      <x:c r="B6" s="7" t="s"/>
-      <x:c r="C6" s="7" t="s"/>
-      <x:c r="D6" s="7" t="s"/>
-      <x:c r="E6" s="7" t="s"/>
+      <x:c r="A6" s="6" t="s"/>
+      <x:c r="B6" s="6" t="s"/>
+      <x:c r="C6" s="6" t="s"/>
+      <x:c r="D6" s="6" t="s"/>
+      <x:c r="E6" s="6" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="7" t="s"/>
-      <x:c r="B7" s="7" t="s"/>
-      <x:c r="C7" s="7" t="s"/>
-      <x:c r="D7" s="7" t="s"/>
-      <x:c r="E7" s="7" t="s"/>
+      <x:c r="A7" s="6" t="s"/>
+      <x:c r="B7" s="6" t="s"/>
+      <x:c r="C7" s="6" t="s"/>
+      <x:c r="D7" s="6" t="s"/>
+      <x:c r="E7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s"/>
-      <x:c r="C8" s="7" t="s"/>
-      <x:c r="D8" s="7" t="s"/>
-      <x:c r="E8" s="7" t="s"/>
+      <x:c r="A8" s="6" t="s"/>
+      <x:c r="B8" s="6" t="s"/>
+      <x:c r="C8" s="6" t="s"/>
+      <x:c r="D8" s="6" t="s"/>
+      <x:c r="E8" s="6" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="7" t="s"/>
-      <x:c r="B9" s="7" t="s"/>
-      <x:c r="C9" s="7" t="s"/>
-      <x:c r="D9" s="7" t="s"/>
-      <x:c r="E9" s="7" t="s"/>
+      <x:c r="A9" s="6" t="s"/>
+      <x:c r="B9" s="6" t="s"/>
+      <x:c r="C9" s="6" t="s"/>
+      <x:c r="D9" s="6" t="s"/>
+      <x:c r="E9" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataValidations count="1">
